--- a/docs/collections/ogai/metadata/data.xlsx
+++ b/docs/collections/ogai/metadata/data.xlsx
@@ -9452,7 +9452,9 @@
         <v>68</v>
       </c>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="s">
+        <v>59</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="s"/>
       <c r="V3" t="s">
@@ -9517,7 +9519,9 @@
       </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="s">
+        <v>59</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="s"/>
       <c r="V4" t="s">
@@ -9584,7 +9588,9 @@
         <v>68</v>
       </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="s">
+        <v>59</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="s"/>
       <c r="V5" t="s">
@@ -9649,7 +9655,9 @@
       </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="s">
+        <v>59</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="s"/>
       <c r="V6" t="s">
@@ -9716,7 +9724,9 @@
         <v>68</v>
       </c>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="s">
+        <v>59</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="s"/>
       <c r="V7" t="s">
@@ -9783,7 +9793,9 @@
         <v>68</v>
       </c>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="s">
+        <v>59</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="s"/>
       <c r="V8" t="s">
@@ -9850,7 +9862,9 @@
         <v>68</v>
       </c>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="s">
+        <v>59</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="s"/>
       <c r="V9" t="s">
@@ -9917,7 +9931,9 @@
         <v>68</v>
       </c>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="s">
+        <v>59</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="s"/>
       <c r="V10" t="s">
@@ -9984,7 +10000,9 @@
         <v>68</v>
       </c>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="s">
+        <v>59</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="s"/>
       <c r="V11" t="s">
@@ -10051,7 +10069,9 @@
         <v>68</v>
       </c>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="s">
+        <v>59</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="s"/>
       <c r="V12" t="s">
@@ -10116,7 +10136,9 @@
       </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="s">
+        <v>59</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="s"/>
       <c r="V13" t="s">
@@ -10183,7 +10205,9 @@
         <v>68</v>
       </c>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="s">
+        <v>59</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="s"/>
       <c r="V14" t="s">
@@ -10250,7 +10274,9 @@
         <v>68</v>
       </c>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="s">
+        <v>59</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="s"/>
       <c r="V15" t="s">
@@ -10317,7 +10343,9 @@
         <v>68</v>
       </c>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="s">
+        <v>59</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="s"/>
       <c r="V16" t="s">
@@ -10384,7 +10412,9 @@
         <v>68</v>
       </c>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="s">
+        <v>59</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="s"/>
       <c r="V17" t="s">
@@ -10451,7 +10481,9 @@
         <v>68</v>
       </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="s">
+        <v>59</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="s"/>
       <c r="V18" t="s">
@@ -10516,7 +10548,9 @@
       </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="s">
+        <v>59</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="s"/>
       <c r="V19" t="s">
@@ -10583,7 +10617,9 @@
         <v>68</v>
       </c>
       <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="s">
+        <v>59</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="s"/>
       <c r="V20" t="s">
@@ -10650,7 +10686,9 @@
         <v>68</v>
       </c>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="s">
+        <v>59</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="s"/>
       <c r="V21" t="s">
@@ -10717,7 +10755,9 @@
         <v>68</v>
       </c>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="s">
+        <v>59</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="s"/>
       <c r="V22" t="s">
@@ -10784,7 +10824,9 @@
         <v>68</v>
       </c>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="s">
+        <v>59</v>
+      </c>
       <c r="T23" t="s"/>
       <c r="U23" t="s"/>
       <c r="V23" t="s">
@@ -10851,7 +10893,9 @@
         <v>68</v>
       </c>
       <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="S24" t="s">
+        <v>59</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="s"/>
       <c r="V24" t="s">
@@ -10918,7 +10962,9 @@
         <v>68</v>
       </c>
       <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="S25" t="s">
+        <v>59</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="s"/>
       <c r="V25" t="s">
@@ -10985,7 +11031,9 @@
         <v>68</v>
       </c>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="s">
+        <v>59</v>
+      </c>
       <c r="T26" t="s"/>
       <c r="U26" t="s"/>
       <c r="V26" t="s">
@@ -11052,7 +11100,9 @@
         <v>68</v>
       </c>
       <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="S27" t="s">
+        <v>59</v>
+      </c>
       <c r="T27" t="s"/>
       <c r="U27" t="s"/>
       <c r="V27" t="s">
@@ -11119,7 +11169,9 @@
         <v>68</v>
       </c>
       <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+      <c r="S28" t="s">
+        <v>59</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="s"/>
       <c r="V28" t="s">
@@ -11186,7 +11238,9 @@
         <v>68</v>
       </c>
       <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="S29" t="s">
+        <v>59</v>
+      </c>
       <c r="T29" t="s"/>
       <c r="U29" t="s"/>
       <c r="V29" t="s">
@@ -11253,7 +11307,9 @@
         <v>68</v>
       </c>
       <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="S30" t="s">
+        <v>59</v>
+      </c>
       <c r="T30" t="s"/>
       <c r="U30" t="s"/>
       <c r="V30" t="s">
@@ -11320,7 +11376,9 @@
         <v>68</v>
       </c>
       <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="S31" t="s">
+        <v>59</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="s"/>
       <c r="V31" t="s">
@@ -11387,7 +11445,9 @@
         <v>68</v>
       </c>
       <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="S32" t="s">
+        <v>59</v>
+      </c>
       <c r="T32" t="s"/>
       <c r="U32" t="s"/>
       <c r="V32" t="s">
@@ -11452,7 +11512,9 @@
       </c>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="S33" t="s">
+        <v>59</v>
+      </c>
       <c r="T33" t="s"/>
       <c r="U33" t="s"/>
       <c r="V33" t="s">
@@ -11517,7 +11579,9 @@
       </c>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="S34" t="s">
+        <v>59</v>
+      </c>
       <c r="T34" t="s"/>
       <c r="U34" t="s"/>
       <c r="V34" t="s">
@@ -11582,7 +11646,9 @@
       </c>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+      <c r="S35" t="s">
+        <v>59</v>
+      </c>
       <c r="T35" t="s"/>
       <c r="U35" t="s"/>
       <c r="V35" t="s">
@@ -11649,7 +11715,9 @@
         <v>68</v>
       </c>
       <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="S36" t="s">
+        <v>59</v>
+      </c>
       <c r="T36" t="s"/>
       <c r="U36" t="s"/>
       <c r="V36" t="s">
@@ -11714,7 +11782,9 @@
       </c>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+      <c r="S37" t="s">
+        <v>59</v>
+      </c>
       <c r="T37" t="s"/>
       <c r="U37" t="s"/>
       <c r="V37" t="s">
@@ -11781,7 +11851,9 @@
         <v>68</v>
       </c>
       <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+      <c r="S38" t="s">
+        <v>59</v>
+      </c>
       <c r="T38" t="s"/>
       <c r="U38" t="s"/>
       <c r="V38" t="s">
@@ -11848,7 +11920,9 @@
         <v>68</v>
       </c>
       <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+      <c r="S39" t="s">
+        <v>59</v>
+      </c>
       <c r="T39" t="s"/>
       <c r="U39" t="s"/>
       <c r="V39" t="s">
@@ -11915,7 +11989,9 @@
         <v>68</v>
       </c>
       <c r="R40" t="s"/>
-      <c r="S40" t="s"/>
+      <c r="S40" t="s">
+        <v>59</v>
+      </c>
       <c r="T40" t="s"/>
       <c r="U40" t="s"/>
       <c r="V40" t="s">
@@ -11982,7 +12058,9 @@
         <v>68</v>
       </c>
       <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
+      <c r="S41" t="s">
+        <v>59</v>
+      </c>
       <c r="T41" t="s"/>
       <c r="U41" t="s"/>
       <c r="V41" t="s">
@@ -12049,7 +12127,9 @@
         <v>68</v>
       </c>
       <c r="R42" t="s"/>
-      <c r="S42" t="s"/>
+      <c r="S42" t="s">
+        <v>59</v>
+      </c>
       <c r="T42" t="s"/>
       <c r="U42" t="s"/>
       <c r="V42" t="s">
@@ -12116,7 +12196,9 @@
         <v>68</v>
       </c>
       <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+      <c r="S43" t="s">
+        <v>59</v>
+      </c>
       <c r="T43" t="s"/>
       <c r="U43" t="s"/>
       <c r="V43" t="s">
@@ -12181,7 +12263,9 @@
       </c>
       <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
-      <c r="S44" t="s"/>
+      <c r="S44" t="s">
+        <v>59</v>
+      </c>
       <c r="T44" t="s"/>
       <c r="U44" t="s"/>
       <c r="V44" t="s">
@@ -12248,7 +12332,9 @@
         <v>68</v>
       </c>
       <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
+      <c r="S45" t="s">
+        <v>59</v>
+      </c>
       <c r="T45" t="s"/>
       <c r="U45" t="s"/>
       <c r="V45" t="s">
@@ -12313,7 +12399,9 @@
       </c>
       <c r="Q46" t="s"/>
       <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+      <c r="S46" t="s">
+        <v>59</v>
+      </c>
       <c r="T46" t="s"/>
       <c r="U46" t="s"/>
       <c r="V46" t="s">
@@ -12380,7 +12468,9 @@
         <v>68</v>
       </c>
       <c r="R47" t="s"/>
-      <c r="S47" t="s"/>
+      <c r="S47" t="s">
+        <v>59</v>
+      </c>
       <c r="T47" t="s"/>
       <c r="U47" t="s"/>
       <c r="V47" t="s">
@@ -12447,7 +12537,9 @@
         <v>68</v>
       </c>
       <c r="R48" t="s"/>
-      <c r="S48" t="s"/>
+      <c r="S48" t="s">
+        <v>59</v>
+      </c>
       <c r="T48" t="s"/>
       <c r="U48" t="s"/>
       <c r="V48" t="s">
@@ -12514,7 +12606,9 @@
         <v>68</v>
       </c>
       <c r="R49" t="s"/>
-      <c r="S49" t="s"/>
+      <c r="S49" t="s">
+        <v>59</v>
+      </c>
       <c r="T49" t="s"/>
       <c r="U49" t="s"/>
       <c r="V49" t="s">
@@ -12581,7 +12675,9 @@
         <v>68</v>
       </c>
       <c r="R50" t="s"/>
-      <c r="S50" t="s"/>
+      <c r="S50" t="s">
+        <v>59</v>
+      </c>
       <c r="T50" t="s"/>
       <c r="U50" t="s"/>
       <c r="V50" t="s">
@@ -12648,7 +12744,9 @@
         <v>68</v>
       </c>
       <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
+      <c r="S51" t="s">
+        <v>59</v>
+      </c>
       <c r="T51" t="s"/>
       <c r="U51" t="s"/>
       <c r="V51" t="s">
@@ -12715,7 +12813,9 @@
         <v>68</v>
       </c>
       <c r="R52" t="s"/>
-      <c r="S52" t="s"/>
+      <c r="S52" t="s">
+        <v>59</v>
+      </c>
       <c r="T52" t="s"/>
       <c r="U52" t="s"/>
       <c r="V52" t="s">
@@ -12780,7 +12880,9 @@
       </c>
       <c r="Q53" t="s"/>
       <c r="R53" t="s"/>
-      <c r="S53" t="s"/>
+      <c r="S53" t="s">
+        <v>59</v>
+      </c>
       <c r="T53" t="s"/>
       <c r="U53" t="s"/>
       <c r="V53" t="s">
@@ -12847,7 +12949,9 @@
         <v>68</v>
       </c>
       <c r="R54" t="s"/>
-      <c r="S54" t="s"/>
+      <c r="S54" t="s">
+        <v>59</v>
+      </c>
       <c r="T54" t="s"/>
       <c r="U54" t="s"/>
       <c r="V54" t="s">
@@ -12914,7 +13018,9 @@
         <v>68</v>
       </c>
       <c r="R55" t="s"/>
-      <c r="S55" t="s"/>
+      <c r="S55" t="s">
+        <v>59</v>
+      </c>
       <c r="T55" t="s"/>
       <c r="U55" t="s"/>
       <c r="V55" t="s">
@@ -12981,7 +13087,9 @@
         <v>68</v>
       </c>
       <c r="R56" t="s"/>
-      <c r="S56" t="s"/>
+      <c r="S56" t="s">
+        <v>59</v>
+      </c>
       <c r="T56" t="s"/>
       <c r="U56" t="s"/>
       <c r="V56" t="s">
@@ -13046,7 +13154,9 @@
       </c>
       <c r="Q57" t="s"/>
       <c r="R57" t="s"/>
-      <c r="S57" t="s"/>
+      <c r="S57" t="s">
+        <v>59</v>
+      </c>
       <c r="T57" t="s"/>
       <c r="U57" t="s"/>
       <c r="V57" t="s">
@@ -13111,7 +13221,9 @@
       </c>
       <c r="Q58" t="s"/>
       <c r="R58" t="s"/>
-      <c r="S58" t="s"/>
+      <c r="S58" t="s">
+        <v>59</v>
+      </c>
       <c r="T58" t="s"/>
       <c r="U58" t="s"/>
       <c r="V58" t="s">
@@ -13176,7 +13288,9 @@
       </c>
       <c r="Q59" t="s"/>
       <c r="R59" t="s"/>
-      <c r="S59" t="s"/>
+      <c r="S59" t="s">
+        <v>59</v>
+      </c>
       <c r="T59" t="s"/>
       <c r="U59" t="s"/>
       <c r="V59" t="s">
@@ -13243,7 +13357,9 @@
         <v>68</v>
       </c>
       <c r="R60" t="s"/>
-      <c r="S60" t="s"/>
+      <c r="S60" t="s">
+        <v>59</v>
+      </c>
       <c r="T60" t="s"/>
       <c r="U60" t="s"/>
       <c r="V60" t="s">
@@ -13308,7 +13424,9 @@
       </c>
       <c r="Q61" t="s"/>
       <c r="R61" t="s"/>
-      <c r="S61" t="s"/>
+      <c r="S61" t="s">
+        <v>59</v>
+      </c>
       <c r="T61" t="s"/>
       <c r="U61" t="s"/>
       <c r="V61" t="s">
@@ -13375,7 +13493,9 @@
         <v>68</v>
       </c>
       <c r="R62" t="s"/>
-      <c r="S62" t="s"/>
+      <c r="S62" t="s">
+        <v>59</v>
+      </c>
       <c r="T62" t="s"/>
       <c r="U62" t="s"/>
       <c r="V62" t="s">
@@ -13442,7 +13562,9 @@
         <v>68</v>
       </c>
       <c r="R63" t="s"/>
-      <c r="S63" t="s"/>
+      <c r="S63" t="s">
+        <v>59</v>
+      </c>
       <c r="T63" t="s"/>
       <c r="U63" t="s"/>
       <c r="V63" t="s">
@@ -13509,7 +13631,9 @@
         <v>68</v>
       </c>
       <c r="R64" t="s"/>
-      <c r="S64" t="s"/>
+      <c r="S64" t="s">
+        <v>59</v>
+      </c>
       <c r="T64" t="s"/>
       <c r="U64" t="s"/>
       <c r="V64" t="s">
@@ -13576,7 +13700,9 @@
         <v>68</v>
       </c>
       <c r="R65" t="s"/>
-      <c r="S65" t="s"/>
+      <c r="S65" t="s">
+        <v>59</v>
+      </c>
       <c r="T65" t="s"/>
       <c r="U65" t="s"/>
       <c r="V65" t="s">
@@ -13643,7 +13769,9 @@
         <v>68</v>
       </c>
       <c r="R66" t="s"/>
-      <c r="S66" t="s"/>
+      <c r="S66" t="s">
+        <v>59</v>
+      </c>
       <c r="T66" t="s"/>
       <c r="U66" t="s"/>
       <c r="V66" t="s">
@@ -13710,7 +13838,9 @@
         <v>68</v>
       </c>
       <c r="R67" t="s"/>
-      <c r="S67" t="s"/>
+      <c r="S67" t="s">
+        <v>59</v>
+      </c>
       <c r="T67" t="s"/>
       <c r="U67" t="s"/>
       <c r="V67" t="s">
@@ -13775,7 +13905,9 @@
       </c>
       <c r="Q68" t="s"/>
       <c r="R68" t="s"/>
-      <c r="S68" t="s"/>
+      <c r="S68" t="s">
+        <v>59</v>
+      </c>
       <c r="T68" t="s"/>
       <c r="U68" t="s"/>
       <c r="V68" t="s">
@@ -13842,7 +13974,9 @@
         <v>68</v>
       </c>
       <c r="R69" t="s"/>
-      <c r="S69" t="s"/>
+      <c r="S69" t="s">
+        <v>59</v>
+      </c>
       <c r="T69" t="s"/>
       <c r="U69" t="s"/>
       <c r="V69" t="s">
@@ -13909,7 +14043,9 @@
         <v>68</v>
       </c>
       <c r="R70" t="s"/>
-      <c r="S70" t="s"/>
+      <c r="S70" t="s">
+        <v>59</v>
+      </c>
       <c r="T70" t="s"/>
       <c r="U70" t="s"/>
       <c r="V70" t="s">
@@ -13976,7 +14112,9 @@
         <v>68</v>
       </c>
       <c r="R71" t="s"/>
-      <c r="S71" t="s"/>
+      <c r="S71" t="s">
+        <v>59</v>
+      </c>
       <c r="T71" t="s"/>
       <c r="U71" t="s"/>
       <c r="V71" t="s">
@@ -14043,7 +14181,9 @@
         <v>68</v>
       </c>
       <c r="R72" t="s"/>
-      <c r="S72" t="s"/>
+      <c r="S72" t="s">
+        <v>59</v>
+      </c>
       <c r="T72" t="s"/>
       <c r="U72" t="s"/>
       <c r="V72" t="s">
@@ -14110,7 +14250,9 @@
         <v>68</v>
       </c>
       <c r="R73" t="s"/>
-      <c r="S73" t="s"/>
+      <c r="S73" t="s">
+        <v>59</v>
+      </c>
       <c r="T73" t="s"/>
       <c r="U73" t="s"/>
       <c r="V73" t="s">
@@ -14177,7 +14319,9 @@
         <v>68</v>
       </c>
       <c r="R74" t="s"/>
-      <c r="S74" t="s"/>
+      <c r="S74" t="s">
+        <v>59</v>
+      </c>
       <c r="T74" t="s"/>
       <c r="U74" t="s"/>
       <c r="V74" t="s">
@@ -14244,7 +14388,9 @@
         <v>68</v>
       </c>
       <c r="R75" t="s"/>
-      <c r="S75" t="s"/>
+      <c r="S75" t="s">
+        <v>59</v>
+      </c>
       <c r="T75" t="s"/>
       <c r="U75" t="s"/>
       <c r="V75" t="s">
@@ -14311,7 +14457,9 @@
         <v>68</v>
       </c>
       <c r="R76" t="s"/>
-      <c r="S76" t="s"/>
+      <c r="S76" t="s">
+        <v>59</v>
+      </c>
       <c r="T76" t="s"/>
       <c r="U76" t="s"/>
       <c r="V76" t="s">
@@ -14376,7 +14524,9 @@
       </c>
       <c r="Q77" t="s"/>
       <c r="R77" t="s"/>
-      <c r="S77" t="s"/>
+      <c r="S77" t="s">
+        <v>59</v>
+      </c>
       <c r="T77" t="s"/>
       <c r="U77" t="s"/>
       <c r="V77" t="s">
@@ -14443,7 +14593,9 @@
         <v>68</v>
       </c>
       <c r="R78" t="s"/>
-      <c r="S78" t="s"/>
+      <c r="S78" t="s">
+        <v>59</v>
+      </c>
       <c r="T78" t="s"/>
       <c r="U78" t="s"/>
       <c r="V78" t="s">
@@ -14510,7 +14662,9 @@
         <v>68</v>
       </c>
       <c r="R79" t="s"/>
-      <c r="S79" t="s"/>
+      <c r="S79" t="s">
+        <v>59</v>
+      </c>
       <c r="T79" t="s"/>
       <c r="U79" t="s"/>
       <c r="V79" t="s">
@@ -14577,7 +14731,9 @@
         <v>68</v>
       </c>
       <c r="R80" t="s"/>
-      <c r="S80" t="s"/>
+      <c r="S80" t="s">
+        <v>59</v>
+      </c>
       <c r="T80" t="s"/>
       <c r="U80" t="s"/>
       <c r="V80" t="s">
@@ -14644,7 +14800,9 @@
         <v>68</v>
       </c>
       <c r="R81" t="s"/>
-      <c r="S81" t="s"/>
+      <c r="S81" t="s">
+        <v>59</v>
+      </c>
       <c r="T81" t="s"/>
       <c r="U81" t="s"/>
       <c r="V81" t="s">
@@ -14711,7 +14869,9 @@
         <v>68</v>
       </c>
       <c r="R82" t="s"/>
-      <c r="S82" t="s"/>
+      <c r="S82" t="s">
+        <v>59</v>
+      </c>
       <c r="T82" t="s"/>
       <c r="U82" t="s"/>
       <c r="V82" t="s">
@@ -14778,7 +14938,9 @@
         <v>68</v>
       </c>
       <c r="R83" t="s"/>
-      <c r="S83" t="s"/>
+      <c r="S83" t="s">
+        <v>59</v>
+      </c>
       <c r="T83" t="s"/>
       <c r="U83" t="s"/>
       <c r="V83" t="s">
@@ -14845,7 +15007,9 @@
         <v>68</v>
       </c>
       <c r="R84" t="s"/>
-      <c r="S84" t="s"/>
+      <c r="S84" t="s">
+        <v>59</v>
+      </c>
       <c r="T84" t="s"/>
       <c r="U84" t="s"/>
       <c r="V84" t="s">
@@ -14912,7 +15076,9 @@
         <v>68</v>
       </c>
       <c r="R85" t="s"/>
-      <c r="S85" t="s"/>
+      <c r="S85" t="s">
+        <v>59</v>
+      </c>
       <c r="T85" t="s"/>
       <c r="U85" t="s"/>
       <c r="V85" t="s">
@@ -14979,7 +15145,9 @@
         <v>68</v>
       </c>
       <c r="R86" t="s"/>
-      <c r="S86" t="s"/>
+      <c r="S86" t="s">
+        <v>59</v>
+      </c>
       <c r="T86" t="s"/>
       <c r="U86" t="s"/>
       <c r="V86" t="s">
@@ -15046,7 +15214,9 @@
         <v>68</v>
       </c>
       <c r="R87" t="s"/>
-      <c r="S87" t="s"/>
+      <c r="S87" t="s">
+        <v>59</v>
+      </c>
       <c r="T87" t="s"/>
       <c r="U87" t="s"/>
       <c r="V87" t="s">
@@ -15111,7 +15281,9 @@
       </c>
       <c r="Q88" t="s"/>
       <c r="R88" t="s"/>
-      <c r="S88" t="s"/>
+      <c r="S88" t="s">
+        <v>59</v>
+      </c>
       <c r="T88" t="s"/>
       <c r="U88" t="s"/>
       <c r="V88" t="s">
@@ -15178,7 +15350,9 @@
         <v>68</v>
       </c>
       <c r="R89" t="s"/>
-      <c r="S89" t="s"/>
+      <c r="S89" t="s">
+        <v>59</v>
+      </c>
       <c r="T89" t="s"/>
       <c r="U89" t="s"/>
       <c r="V89" t="s">
@@ -15245,7 +15419,9 @@
         <v>68</v>
       </c>
       <c r="R90" t="s"/>
-      <c r="S90" t="s"/>
+      <c r="S90" t="s">
+        <v>59</v>
+      </c>
       <c r="T90" t="s"/>
       <c r="U90" t="s"/>
       <c r="V90" t="s">
@@ -15312,7 +15488,9 @@
         <v>68</v>
       </c>
       <c r="R91" t="s"/>
-      <c r="S91" t="s"/>
+      <c r="S91" t="s">
+        <v>59</v>
+      </c>
       <c r="T91" t="s"/>
       <c r="U91" t="s"/>
       <c r="V91" t="s">
@@ -15379,7 +15557,9 @@
         <v>68</v>
       </c>
       <c r="R92" t="s"/>
-      <c r="S92" t="s"/>
+      <c r="S92" t="s">
+        <v>59</v>
+      </c>
       <c r="T92" t="s"/>
       <c r="U92" t="s"/>
       <c r="V92" t="s">
@@ -15444,7 +15624,9 @@
       </c>
       <c r="Q93" t="s"/>
       <c r="R93" t="s"/>
-      <c r="S93" t="s"/>
+      <c r="S93" t="s">
+        <v>59</v>
+      </c>
       <c r="T93" t="s"/>
       <c r="U93" t="s"/>
       <c r="V93" t="s">
@@ -15511,7 +15693,9 @@
         <v>68</v>
       </c>
       <c r="R94" t="s"/>
-      <c r="S94" t="s"/>
+      <c r="S94" t="s">
+        <v>59</v>
+      </c>
       <c r="T94" t="s"/>
       <c r="U94" t="s"/>
       <c r="V94" t="s">
@@ -15578,7 +15762,9 @@
         <v>68</v>
       </c>
       <c r="R95" t="s"/>
-      <c r="S95" t="s"/>
+      <c r="S95" t="s">
+        <v>59</v>
+      </c>
       <c r="T95" t="s"/>
       <c r="U95" t="s"/>
       <c r="V95" t="s">
@@ -15645,7 +15831,9 @@
         <v>68</v>
       </c>
       <c r="R96" t="s"/>
-      <c r="S96" t="s"/>
+      <c r="S96" t="s">
+        <v>59</v>
+      </c>
       <c r="T96" t="s"/>
       <c r="U96" t="s"/>
       <c r="V96" t="s">
@@ -15712,7 +15900,9 @@
         <v>68</v>
       </c>
       <c r="R97" t="s"/>
-      <c r="S97" t="s"/>
+      <c r="S97" t="s">
+        <v>59</v>
+      </c>
       <c r="T97" t="s"/>
       <c r="U97" t="s"/>
       <c r="V97" t="s">
@@ -15779,7 +15969,9 @@
         <v>68</v>
       </c>
       <c r="R98" t="s"/>
-      <c r="S98" t="s"/>
+      <c r="S98" t="s">
+        <v>59</v>
+      </c>
       <c r="T98" t="s"/>
       <c r="U98" t="s"/>
       <c r="V98" t="s">
@@ -15846,7 +16038,9 @@
         <v>68</v>
       </c>
       <c r="R99" t="s"/>
-      <c r="S99" t="s"/>
+      <c r="S99" t="s">
+        <v>59</v>
+      </c>
       <c r="T99" t="s"/>
       <c r="U99" t="s"/>
       <c r="V99" t="s">
@@ -15913,7 +16107,9 @@
         <v>68</v>
       </c>
       <c r="R100" t="s"/>
-      <c r="S100" t="s"/>
+      <c r="S100" t="s">
+        <v>59</v>
+      </c>
       <c r="T100" t="s"/>
       <c r="U100" t="s"/>
       <c r="V100" t="s">
@@ -15980,7 +16176,9 @@
         <v>68</v>
       </c>
       <c r="R101" t="s"/>
-      <c r="S101" t="s"/>
+      <c r="S101" t="s">
+        <v>59</v>
+      </c>
       <c r="T101" t="s"/>
       <c r="U101" t="s"/>
       <c r="V101" t="s">
@@ -16047,7 +16245,9 @@
         <v>68</v>
       </c>
       <c r="R102" t="s"/>
-      <c r="S102" t="s"/>
+      <c r="S102" t="s">
+        <v>59</v>
+      </c>
       <c r="T102" t="s"/>
       <c r="U102" t="s"/>
       <c r="V102" t="s">
@@ -16112,7 +16312,9 @@
       </c>
       <c r="Q103" t="s"/>
       <c r="R103" t="s"/>
-      <c r="S103" t="s"/>
+      <c r="S103" t="s">
+        <v>59</v>
+      </c>
       <c r="T103" t="s"/>
       <c r="U103" t="s"/>
       <c r="V103" t="s">
@@ -16179,7 +16381,9 @@
         <v>68</v>
       </c>
       <c r="R104" t="s"/>
-      <c r="S104" t="s"/>
+      <c r="S104" t="s">
+        <v>59</v>
+      </c>
       <c r="T104" t="s"/>
       <c r="U104" t="s"/>
       <c r="V104" t="s">
@@ -16246,7 +16450,9 @@
         <v>68</v>
       </c>
       <c r="R105" t="s"/>
-      <c r="S105" t="s"/>
+      <c r="S105" t="s">
+        <v>59</v>
+      </c>
       <c r="T105" t="s"/>
       <c r="U105" t="s"/>
       <c r="V105" t="s">
@@ -16313,7 +16519,9 @@
         <v>68</v>
       </c>
       <c r="R106" t="s"/>
-      <c r="S106" t="s"/>
+      <c r="S106" t="s">
+        <v>59</v>
+      </c>
       <c r="T106" t="s"/>
       <c r="U106" t="s"/>
       <c r="V106" t="s">
@@ -16380,7 +16588,9 @@
         <v>68</v>
       </c>
       <c r="R107" t="s"/>
-      <c r="S107" t="s"/>
+      <c r="S107" t="s">
+        <v>59</v>
+      </c>
       <c r="T107" t="s"/>
       <c r="U107" t="s"/>
       <c r="V107" t="s">
@@ -16447,7 +16657,9 @@
         <v>68</v>
       </c>
       <c r="R108" t="s"/>
-      <c r="S108" t="s"/>
+      <c r="S108" t="s">
+        <v>59</v>
+      </c>
       <c r="T108" t="s"/>
       <c r="U108" t="s"/>
       <c r="V108" t="s">
@@ -16514,7 +16726,9 @@
         <v>68</v>
       </c>
       <c r="R109" t="s"/>
-      <c r="S109" t="s"/>
+      <c r="S109" t="s">
+        <v>59</v>
+      </c>
       <c r="T109" t="s"/>
       <c r="U109" t="s"/>
       <c r="V109" t="s">
@@ -16581,7 +16795,9 @@
         <v>68</v>
       </c>
       <c r="R110" t="s"/>
-      <c r="S110" t="s"/>
+      <c r="S110" t="s">
+        <v>59</v>
+      </c>
       <c r="T110" t="s"/>
       <c r="U110" t="s"/>
       <c r="V110" t="s">
@@ -16646,7 +16862,9 @@
       </c>
       <c r="Q111" t="s"/>
       <c r="R111" t="s"/>
-      <c r="S111" t="s"/>
+      <c r="S111" t="s">
+        <v>59</v>
+      </c>
       <c r="T111" t="s"/>
       <c r="U111" t="s"/>
       <c r="V111" t="s">
@@ -16711,7 +16929,9 @@
       </c>
       <c r="Q112" t="s"/>
       <c r="R112" t="s"/>
-      <c r="S112" t="s"/>
+      <c r="S112" t="s">
+        <v>59</v>
+      </c>
       <c r="T112" t="s"/>
       <c r="U112" t="s"/>
       <c r="V112" t="s">
@@ -16778,7 +16998,9 @@
         <v>68</v>
       </c>
       <c r="R113" t="s"/>
-      <c r="S113" t="s"/>
+      <c r="S113" t="s">
+        <v>59</v>
+      </c>
       <c r="T113" t="s"/>
       <c r="U113" t="s"/>
       <c r="V113" t="s">
@@ -16845,7 +17067,9 @@
         <v>68</v>
       </c>
       <c r="R114" t="s"/>
-      <c r="S114" t="s"/>
+      <c r="S114" t="s">
+        <v>59</v>
+      </c>
       <c r="T114" t="s"/>
       <c r="U114" t="s"/>
       <c r="V114" t="s">
@@ -16912,7 +17136,9 @@
         <v>68</v>
       </c>
       <c r="R115" t="s"/>
-      <c r="S115" t="s"/>
+      <c r="S115" t="s">
+        <v>59</v>
+      </c>
       <c r="T115" t="s"/>
       <c r="U115" t="s"/>
       <c r="V115" t="s">
@@ -16979,7 +17205,9 @@
         <v>68</v>
       </c>
       <c r="R116" t="s"/>
-      <c r="S116" t="s"/>
+      <c r="S116" t="s">
+        <v>59</v>
+      </c>
       <c r="T116" t="s"/>
       <c r="U116" t="s"/>
       <c r="V116" t="s">
@@ -17046,7 +17274,9 @@
         <v>68</v>
       </c>
       <c r="R117" t="s"/>
-      <c r="S117" t="s"/>
+      <c r="S117" t="s">
+        <v>59</v>
+      </c>
       <c r="T117" t="s"/>
       <c r="U117" t="s"/>
       <c r="V117" t="s">
@@ -17113,7 +17343,9 @@
         <v>68</v>
       </c>
       <c r="R118" t="s"/>
-      <c r="S118" t="s"/>
+      <c r="S118" t="s">
+        <v>59</v>
+      </c>
       <c r="T118" t="s"/>
       <c r="U118" t="s"/>
       <c r="V118" t="s">
@@ -17180,7 +17412,9 @@
         <v>68</v>
       </c>
       <c r="R119" t="s"/>
-      <c r="S119" t="s"/>
+      <c r="S119" t="s">
+        <v>59</v>
+      </c>
       <c r="T119" t="s"/>
       <c r="U119" t="s"/>
       <c r="V119" t="s">
@@ -17245,7 +17479,9 @@
       </c>
       <c r="Q120" t="s"/>
       <c r="R120" t="s"/>
-      <c r="S120" t="s"/>
+      <c r="S120" t="s">
+        <v>59</v>
+      </c>
       <c r="T120" t="s"/>
       <c r="U120" t="s"/>
       <c r="V120" t="s">
@@ -17312,7 +17548,9 @@
         <v>68</v>
       </c>
       <c r="R121" t="s"/>
-      <c r="S121" t="s"/>
+      <c r="S121" t="s">
+        <v>59</v>
+      </c>
       <c r="T121" t="s"/>
       <c r="U121" t="s"/>
       <c r="V121" t="s">
@@ -17379,7 +17617,9 @@
         <v>68</v>
       </c>
       <c r="R122" t="s"/>
-      <c r="S122" t="s"/>
+      <c r="S122" t="s">
+        <v>59</v>
+      </c>
       <c r="T122" t="s"/>
       <c r="U122" t="s"/>
       <c r="V122" t="s">
@@ -17444,7 +17684,9 @@
       </c>
       <c r="Q123" t="s"/>
       <c r="R123" t="s"/>
-      <c r="S123" t="s"/>
+      <c r="S123" t="s">
+        <v>59</v>
+      </c>
       <c r="T123" t="s"/>
       <c r="U123" t="s"/>
       <c r="V123" t="s">
@@ -17511,7 +17753,9 @@
         <v>68</v>
       </c>
       <c r="R124" t="s"/>
-      <c r="S124" t="s"/>
+      <c r="S124" t="s">
+        <v>59</v>
+      </c>
       <c r="T124" t="s"/>
       <c r="U124" t="s"/>
       <c r="V124" t="s">
@@ -17578,7 +17822,9 @@
         <v>68</v>
       </c>
       <c r="R125" t="s"/>
-      <c r="S125" t="s"/>
+      <c r="S125" t="s">
+        <v>59</v>
+      </c>
       <c r="T125" t="s"/>
       <c r="U125" t="s"/>
       <c r="V125" t="s">
@@ -17643,7 +17889,9 @@
       </c>
       <c r="Q126" t="s"/>
       <c r="R126" t="s"/>
-      <c r="S126" t="s"/>
+      <c r="S126" t="s">
+        <v>59</v>
+      </c>
       <c r="T126" t="s"/>
       <c r="U126" t="s"/>
       <c r="V126" t="s">
@@ -17710,7 +17958,9 @@
         <v>68</v>
       </c>
       <c r="R127" t="s"/>
-      <c r="S127" t="s"/>
+      <c r="S127" t="s">
+        <v>59</v>
+      </c>
       <c r="T127" t="s"/>
       <c r="U127" t="s"/>
       <c r="V127" t="s">
@@ -17775,7 +18025,9 @@
       </c>
       <c r="Q128" t="s"/>
       <c r="R128" t="s"/>
-      <c r="S128" t="s"/>
+      <c r="S128" t="s">
+        <v>59</v>
+      </c>
       <c r="T128" t="s"/>
       <c r="U128" t="s"/>
       <c r="V128" t="s">
@@ -17842,7 +18094,9 @@
         <v>68</v>
       </c>
       <c r="R129" t="s"/>
-      <c r="S129" t="s"/>
+      <c r="S129" t="s">
+        <v>59</v>
+      </c>
       <c r="T129" t="s"/>
       <c r="U129" t="s"/>
       <c r="V129" t="s">
@@ -17909,7 +18163,9 @@
         <v>68</v>
       </c>
       <c r="R130" t="s"/>
-      <c r="S130" t="s"/>
+      <c r="S130" t="s">
+        <v>59</v>
+      </c>
       <c r="T130" t="s"/>
       <c r="U130" t="s"/>
       <c r="V130" t="s">
@@ -17974,7 +18230,9 @@
       </c>
       <c r="Q131" t="s"/>
       <c r="R131" t="s"/>
-      <c r="S131" t="s"/>
+      <c r="S131" t="s">
+        <v>59</v>
+      </c>
       <c r="T131" t="s"/>
       <c r="U131" t="s"/>
       <c r="V131" t="s">
@@ -18041,7 +18299,9 @@
         <v>68</v>
       </c>
       <c r="R132" t="s"/>
-      <c r="S132" t="s"/>
+      <c r="S132" t="s">
+        <v>59</v>
+      </c>
       <c r="T132" t="s"/>
       <c r="U132" t="s"/>
       <c r="V132" t="s">
@@ -18108,7 +18368,9 @@
         <v>68</v>
       </c>
       <c r="R133" t="s"/>
-      <c r="S133" t="s"/>
+      <c r="S133" t="s">
+        <v>59</v>
+      </c>
       <c r="T133" t="s"/>
       <c r="U133" t="s"/>
       <c r="V133" t="s">
@@ -18175,7 +18437,9 @@
         <v>68</v>
       </c>
       <c r="R134" t="s"/>
-      <c r="S134" t="s"/>
+      <c r="S134" t="s">
+        <v>59</v>
+      </c>
       <c r="T134" t="s"/>
       <c r="U134" t="s"/>
       <c r="V134" t="s">
@@ -18242,7 +18506,9 @@
         <v>68</v>
       </c>
       <c r="R135" t="s"/>
-      <c r="S135" t="s"/>
+      <c r="S135" t="s">
+        <v>59</v>
+      </c>
       <c r="T135" t="s"/>
       <c r="U135" t="s"/>
       <c r="V135" t="s">
@@ -18309,7 +18575,9 @@
         <v>68</v>
       </c>
       <c r="R136" t="s"/>
-      <c r="S136" t="s"/>
+      <c r="S136" t="s">
+        <v>59</v>
+      </c>
       <c r="T136" t="s"/>
       <c r="U136" t="s"/>
       <c r="V136" t="s">
@@ -18376,7 +18644,9 @@
         <v>68</v>
       </c>
       <c r="R137" t="s"/>
-      <c r="S137" t="s"/>
+      <c r="S137" t="s">
+        <v>59</v>
+      </c>
       <c r="T137" t="s"/>
       <c r="U137" t="s"/>
       <c r="V137" t="s">
@@ -18441,7 +18711,9 @@
       </c>
       <c r="Q138" t="s"/>
       <c r="R138" t="s"/>
-      <c r="S138" t="s"/>
+      <c r="S138" t="s">
+        <v>59</v>
+      </c>
       <c r="T138" t="s"/>
       <c r="U138" t="s"/>
       <c r="V138" t="s">
@@ -18508,7 +18780,9 @@
         <v>68</v>
       </c>
       <c r="R139" t="s"/>
-      <c r="S139" t="s"/>
+      <c r="S139" t="s">
+        <v>59</v>
+      </c>
       <c r="T139" t="s"/>
       <c r="U139" t="s"/>
       <c r="V139" t="s">
@@ -18575,7 +18849,9 @@
         <v>68</v>
       </c>
       <c r="R140" t="s"/>
-      <c r="S140" t="s"/>
+      <c r="S140" t="s">
+        <v>59</v>
+      </c>
       <c r="T140" t="s"/>
       <c r="U140" t="s"/>
       <c r="V140" t="s">
@@ -18642,7 +18918,9 @@
         <v>68</v>
       </c>
       <c r="R141" t="s"/>
-      <c r="S141" t="s"/>
+      <c r="S141" t="s">
+        <v>59</v>
+      </c>
       <c r="T141" t="s"/>
       <c r="U141" t="s"/>
       <c r="V141" t="s">
@@ -18709,7 +18987,9 @@
         <v>68</v>
       </c>
       <c r="R142" t="s"/>
-      <c r="S142" t="s"/>
+      <c r="S142" t="s">
+        <v>59</v>
+      </c>
       <c r="T142" t="s"/>
       <c r="U142" t="s"/>
       <c r="V142" t="s">
@@ -18776,7 +19056,9 @@
         <v>68</v>
       </c>
       <c r="R143" t="s"/>
-      <c r="S143" t="s"/>
+      <c r="S143" t="s">
+        <v>59</v>
+      </c>
       <c r="T143" t="s"/>
       <c r="U143" t="s"/>
       <c r="V143" t="s">
@@ -18843,7 +19125,9 @@
         <v>68</v>
       </c>
       <c r="R144" t="s"/>
-      <c r="S144" t="s"/>
+      <c r="S144" t="s">
+        <v>59</v>
+      </c>
       <c r="T144" t="s"/>
       <c r="U144" t="s"/>
       <c r="V144" t="s">
@@ -18910,7 +19194,9 @@
         <v>68</v>
       </c>
       <c r="R145" t="s"/>
-      <c r="S145" t="s"/>
+      <c r="S145" t="s">
+        <v>59</v>
+      </c>
       <c r="T145" t="s"/>
       <c r="U145" t="s"/>
       <c r="V145" t="s">
@@ -18977,7 +19263,9 @@
         <v>68</v>
       </c>
       <c r="R146" t="s"/>
-      <c r="S146" t="s"/>
+      <c r="S146" t="s">
+        <v>59</v>
+      </c>
       <c r="T146" t="s"/>
       <c r="U146" t="s"/>
       <c r="V146" t="s">
@@ -19044,7 +19332,9 @@
         <v>68</v>
       </c>
       <c r="R147" t="s"/>
-      <c r="S147" t="s"/>
+      <c r="S147" t="s">
+        <v>59</v>
+      </c>
       <c r="T147" t="s"/>
       <c r="U147" t="s"/>
       <c r="V147" t="s">
@@ -19111,7 +19401,9 @@
         <v>68</v>
       </c>
       <c r="R148" t="s"/>
-      <c r="S148" t="s"/>
+      <c r="S148" t="s">
+        <v>59</v>
+      </c>
       <c r="T148" t="s"/>
       <c r="U148" t="s"/>
       <c r="V148" t="s">
@@ -19176,7 +19468,9 @@
       </c>
       <c r="Q149" t="s"/>
       <c r="R149" t="s"/>
-      <c r="S149" t="s"/>
+      <c r="S149" t="s">
+        <v>59</v>
+      </c>
       <c r="T149" t="s"/>
       <c r="U149" t="s"/>
       <c r="V149" t="s">
@@ -19243,7 +19537,9 @@
         <v>68</v>
       </c>
       <c r="R150" t="s"/>
-      <c r="S150" t="s"/>
+      <c r="S150" t="s">
+        <v>59</v>
+      </c>
       <c r="T150" t="s"/>
       <c r="U150" t="s"/>
       <c r="V150" t="s">
@@ -19310,7 +19606,9 @@
         <v>68</v>
       </c>
       <c r="R151" t="s"/>
-      <c r="S151" t="s"/>
+      <c r="S151" t="s">
+        <v>59</v>
+      </c>
       <c r="T151" t="s"/>
       <c r="U151" t="s"/>
       <c r="V151" t="s">
@@ -19377,7 +19675,9 @@
         <v>68</v>
       </c>
       <c r="R152" t="s"/>
-      <c r="S152" t="s"/>
+      <c r="S152" t="s">
+        <v>59</v>
+      </c>
       <c r="T152" t="s"/>
       <c r="U152" t="s"/>
       <c r="V152" t="s">
@@ -19444,7 +19744,9 @@
         <v>68</v>
       </c>
       <c r="R153" t="s"/>
-      <c r="S153" t="s"/>
+      <c r="S153" t="s">
+        <v>59</v>
+      </c>
       <c r="T153" t="s"/>
       <c r="U153" t="s"/>
       <c r="V153" t="s">
@@ -19511,7 +19813,9 @@
         <v>68</v>
       </c>
       <c r="R154" t="s"/>
-      <c r="S154" t="s"/>
+      <c r="S154" t="s">
+        <v>59</v>
+      </c>
       <c r="T154" t="s"/>
       <c r="U154" t="s"/>
       <c r="V154" t="s">
@@ -19578,7 +19882,9 @@
         <v>68</v>
       </c>
       <c r="R155" t="s"/>
-      <c r="S155" t="s"/>
+      <c r="S155" t="s">
+        <v>59</v>
+      </c>
       <c r="T155" t="s"/>
       <c r="U155" t="s"/>
       <c r="V155" t="s">
@@ -19645,7 +19951,9 @@
         <v>68</v>
       </c>
       <c r="R156" t="s"/>
-      <c r="S156" t="s"/>
+      <c r="S156" t="s">
+        <v>59</v>
+      </c>
       <c r="T156" t="s"/>
       <c r="U156" t="s"/>
       <c r="V156" t="s">
@@ -19712,7 +20020,9 @@
         <v>68</v>
       </c>
       <c r="R157" t="s"/>
-      <c r="S157" t="s"/>
+      <c r="S157" t="s">
+        <v>59</v>
+      </c>
       <c r="T157" t="s"/>
       <c r="U157" t="s"/>
       <c r="V157" t="s">
@@ -19777,7 +20087,9 @@
       </c>
       <c r="Q158" t="s"/>
       <c r="R158" t="s"/>
-      <c r="S158" t="s"/>
+      <c r="S158" t="s">
+        <v>59</v>
+      </c>
       <c r="T158" t="s"/>
       <c r="U158" t="s"/>
       <c r="V158" t="s">
@@ -19844,7 +20156,9 @@
         <v>68</v>
       </c>
       <c r="R159" t="s"/>
-      <c r="S159" t="s"/>
+      <c r="S159" t="s">
+        <v>59</v>
+      </c>
       <c r="T159" t="s"/>
       <c r="U159" t="s"/>
       <c r="V159" t="s">
@@ -19909,7 +20223,9 @@
       </c>
       <c r="Q160" t="s"/>
       <c r="R160" t="s"/>
-      <c r="S160" t="s"/>
+      <c r="S160" t="s">
+        <v>59</v>
+      </c>
       <c r="T160" t="s"/>
       <c r="U160" t="s"/>
       <c r="V160" t="s">
@@ -19974,7 +20290,9 @@
       </c>
       <c r="Q161" t="s"/>
       <c r="R161" t="s"/>
-      <c r="S161" t="s"/>
+      <c r="S161" t="s">
+        <v>59</v>
+      </c>
       <c r="T161" t="s"/>
       <c r="U161" t="s"/>
       <c r="V161" t="s">
@@ -20039,7 +20357,9 @@
       </c>
       <c r="Q162" t="s"/>
       <c r="R162" t="s"/>
-      <c r="S162" t="s"/>
+      <c r="S162" t="s">
+        <v>59</v>
+      </c>
       <c r="T162" t="s"/>
       <c r="U162" t="s"/>
       <c r="V162" t="s">
@@ -20106,7 +20426,9 @@
         <v>68</v>
       </c>
       <c r="R163" t="s"/>
-      <c r="S163" t="s"/>
+      <c r="S163" t="s">
+        <v>59</v>
+      </c>
       <c r="T163" t="s"/>
       <c r="U163" t="s"/>
       <c r="V163" t="s">
@@ -20173,7 +20495,9 @@
         <v>68</v>
       </c>
       <c r="R164" t="s"/>
-      <c r="S164" t="s"/>
+      <c r="S164" t="s">
+        <v>59</v>
+      </c>
       <c r="T164" t="s"/>
       <c r="U164" t="s"/>
       <c r="V164" t="s">
@@ -20240,7 +20564,9 @@
         <v>68</v>
       </c>
       <c r="R165" t="s"/>
-      <c r="S165" t="s"/>
+      <c r="S165" t="s">
+        <v>59</v>
+      </c>
       <c r="T165" t="s"/>
       <c r="U165" t="s"/>
       <c r="V165" t="s">
@@ -20307,7 +20633,9 @@
         <v>68</v>
       </c>
       <c r="R166" t="s"/>
-      <c r="S166" t="s"/>
+      <c r="S166" t="s">
+        <v>59</v>
+      </c>
       <c r="T166" t="s"/>
       <c r="U166" t="s"/>
       <c r="V166" t="s">
@@ -20372,7 +20700,9 @@
       </c>
       <c r="Q167" t="s"/>
       <c r="R167" t="s"/>
-      <c r="S167" t="s"/>
+      <c r="S167" t="s">
+        <v>59</v>
+      </c>
       <c r="T167" t="s"/>
       <c r="U167" t="s"/>
       <c r="V167" t="s">
@@ -20437,7 +20767,9 @@
       </c>
       <c r="Q168" t="s"/>
       <c r="R168" t="s"/>
-      <c r="S168" t="s"/>
+      <c r="S168" t="s">
+        <v>59</v>
+      </c>
       <c r="T168" t="s"/>
       <c r="U168" t="s"/>
       <c r="V168" t="s">
@@ -20504,7 +20836,9 @@
         <v>68</v>
       </c>
       <c r="R169" t="s"/>
-      <c r="S169" t="s"/>
+      <c r="S169" t="s">
+        <v>59</v>
+      </c>
       <c r="T169" t="s"/>
       <c r="U169" t="s"/>
       <c r="V169" t="s">
@@ -20571,7 +20905,9 @@
         <v>68</v>
       </c>
       <c r="R170" t="s"/>
-      <c r="S170" t="s"/>
+      <c r="S170" t="s">
+        <v>59</v>
+      </c>
       <c r="T170" t="s"/>
       <c r="U170" t="s"/>
       <c r="V170" t="s">
@@ -20638,7 +20974,9 @@
         <v>68</v>
       </c>
       <c r="R171" t="s"/>
-      <c r="S171" t="s"/>
+      <c r="S171" t="s">
+        <v>59</v>
+      </c>
       <c r="T171" t="s"/>
       <c r="U171" t="s"/>
       <c r="V171" t="s">
@@ -20705,7 +21043,9 @@
         <v>68</v>
       </c>
       <c r="R172" t="s"/>
-      <c r="S172" t="s"/>
+      <c r="S172" t="s">
+        <v>59</v>
+      </c>
       <c r="T172" t="s"/>
       <c r="U172" t="s"/>
       <c r="V172" t="s">
@@ -20770,7 +21110,9 @@
       </c>
       <c r="Q173" t="s"/>
       <c r="R173" t="s"/>
-      <c r="S173" t="s"/>
+      <c r="S173" t="s">
+        <v>59</v>
+      </c>
       <c r="T173" t="s"/>
       <c r="U173" t="s"/>
       <c r="V173" t="s">
@@ -20837,7 +21179,9 @@
         <v>68</v>
       </c>
       <c r="R174" t="s"/>
-      <c r="S174" t="s"/>
+      <c r="S174" t="s">
+        <v>59</v>
+      </c>
       <c r="T174" t="s"/>
       <c r="U174" t="s"/>
       <c r="V174" t="s">
@@ -20904,7 +21248,9 @@
         <v>68</v>
       </c>
       <c r="R175" t="s"/>
-      <c r="S175" t="s"/>
+      <c r="S175" t="s">
+        <v>59</v>
+      </c>
       <c r="T175" t="s"/>
       <c r="U175" t="s"/>
       <c r="V175" t="s">
@@ -20971,7 +21317,9 @@
         <v>68</v>
       </c>
       <c r="R176" t="s"/>
-      <c r="S176" t="s"/>
+      <c r="S176" t="s">
+        <v>59</v>
+      </c>
       <c r="T176" t="s"/>
       <c r="U176" t="s"/>
       <c r="V176" t="s">
@@ -21036,7 +21384,9 @@
       </c>
       <c r="Q177" t="s"/>
       <c r="R177" t="s"/>
-      <c r="S177" t="s"/>
+      <c r="S177" t="s">
+        <v>59</v>
+      </c>
       <c r="T177" t="s"/>
       <c r="U177" t="s"/>
       <c r="V177" t="s">
@@ -21103,7 +21453,9 @@
         <v>68</v>
       </c>
       <c r="R178" t="s"/>
-      <c r="S178" t="s"/>
+      <c r="S178" t="s">
+        <v>59</v>
+      </c>
       <c r="T178" t="s"/>
       <c r="U178" t="s"/>
       <c r="V178" t="s">
@@ -21170,7 +21522,9 @@
         <v>68</v>
       </c>
       <c r="R179" t="s"/>
-      <c r="S179" t="s"/>
+      <c r="S179" t="s">
+        <v>59</v>
+      </c>
       <c r="T179" t="s"/>
       <c r="U179" t="s"/>
       <c r="V179" t="s">
@@ -21237,7 +21591,9 @@
         <v>68</v>
       </c>
       <c r="R180" t="s"/>
-      <c r="S180" t="s"/>
+      <c r="S180" t="s">
+        <v>59</v>
+      </c>
       <c r="T180" t="s"/>
       <c r="U180" t="s"/>
       <c r="V180" t="s">
@@ -21304,7 +21660,9 @@
         <v>68</v>
       </c>
       <c r="R181" t="s"/>
-      <c r="S181" t="s"/>
+      <c r="S181" t="s">
+        <v>59</v>
+      </c>
       <c r="T181" t="s"/>
       <c r="U181" t="s"/>
       <c r="V181" t="s">
@@ -21371,7 +21729,9 @@
         <v>68</v>
       </c>
       <c r="R182" t="s"/>
-      <c r="S182" t="s"/>
+      <c r="S182" t="s">
+        <v>59</v>
+      </c>
       <c r="T182" t="s"/>
       <c r="U182" t="s"/>
       <c r="V182" t="s">
@@ -21436,7 +21796,9 @@
       </c>
       <c r="Q183" t="s"/>
       <c r="R183" t="s"/>
-      <c r="S183" t="s"/>
+      <c r="S183" t="s">
+        <v>59</v>
+      </c>
       <c r="T183" t="s"/>
       <c r="U183" t="s"/>
       <c r="V183" t="s">
@@ -21501,7 +21863,9 @@
       </c>
       <c r="Q184" t="s"/>
       <c r="R184" t="s"/>
-      <c r="S184" t="s"/>
+      <c r="S184" t="s">
+        <v>59</v>
+      </c>
       <c r="T184" t="s"/>
       <c r="U184" t="s"/>
       <c r="V184" t="s">
@@ -21568,7 +21932,9 @@
         <v>68</v>
       </c>
       <c r="R185" t="s"/>
-      <c r="S185" t="s"/>
+      <c r="S185" t="s">
+        <v>59</v>
+      </c>
       <c r="T185" t="s"/>
       <c r="U185" t="s"/>
       <c r="V185" t="s">
@@ -21635,7 +22001,9 @@
         <v>68</v>
       </c>
       <c r="R186" t="s"/>
-      <c r="S186" t="s"/>
+      <c r="S186" t="s">
+        <v>59</v>
+      </c>
       <c r="T186" t="s"/>
       <c r="U186" t="s"/>
       <c r="V186" t="s">
@@ -21702,7 +22070,9 @@
         <v>68</v>
       </c>
       <c r="R187" t="s"/>
-      <c r="S187" t="s"/>
+      <c r="S187" t="s">
+        <v>59</v>
+      </c>
       <c r="T187" t="s"/>
       <c r="U187" t="s"/>
       <c r="V187" t="s">
@@ -21769,7 +22139,9 @@
         <v>68</v>
       </c>
       <c r="R188" t="s"/>
-      <c r="S188" t="s"/>
+      <c r="S188" t="s">
+        <v>59</v>
+      </c>
       <c r="T188" t="s"/>
       <c r="U188" t="s"/>
       <c r="V188" t="s">
@@ -21836,7 +22208,9 @@
         <v>68</v>
       </c>
       <c r="R189" t="s"/>
-      <c r="S189" t="s"/>
+      <c r="S189" t="s">
+        <v>59</v>
+      </c>
       <c r="T189" t="s"/>
       <c r="U189" t="s"/>
       <c r="V189" t="s">
@@ -21903,7 +22277,9 @@
         <v>68</v>
       </c>
       <c r="R190" t="s"/>
-      <c r="S190" t="s"/>
+      <c r="S190" t="s">
+        <v>59</v>
+      </c>
       <c r="T190" t="s"/>
       <c r="U190" t="s"/>
       <c r="V190" t="s">
@@ -21970,7 +22346,9 @@
         <v>68</v>
       </c>
       <c r="R191" t="s"/>
-      <c r="S191" t="s"/>
+      <c r="S191" t="s">
+        <v>59</v>
+      </c>
       <c r="T191" t="s"/>
       <c r="U191" t="s"/>
       <c r="V191" t="s">
@@ -22037,7 +22415,9 @@
         <v>68</v>
       </c>
       <c r="R192" t="s"/>
-      <c r="S192" t="s"/>
+      <c r="S192" t="s">
+        <v>59</v>
+      </c>
       <c r="T192" t="s"/>
       <c r="U192" t="s"/>
       <c r="V192" t="s">
@@ -22104,7 +22484,9 @@
         <v>68</v>
       </c>
       <c r="R193" t="s"/>
-      <c r="S193" t="s"/>
+      <c r="S193" t="s">
+        <v>59</v>
+      </c>
       <c r="T193" t="s"/>
       <c r="U193" t="s"/>
       <c r="V193" t="s">
@@ -22171,7 +22553,9 @@
         <v>68</v>
       </c>
       <c r="R194" t="s"/>
-      <c r="S194" t="s"/>
+      <c r="S194" t="s">
+        <v>59</v>
+      </c>
       <c r="T194" t="s"/>
       <c r="U194" t="s"/>
       <c r="V194" t="s">
@@ -22236,7 +22620,9 @@
       </c>
       <c r="Q195" t="s"/>
       <c r="R195" t="s"/>
-      <c r="S195" t="s"/>
+      <c r="S195" t="s">
+        <v>59</v>
+      </c>
       <c r="T195" t="s"/>
       <c r="U195" t="s"/>
       <c r="V195" t="s">
@@ -22303,7 +22689,9 @@
         <v>68</v>
       </c>
       <c r="R196" t="s"/>
-      <c r="S196" t="s"/>
+      <c r="S196" t="s">
+        <v>59</v>
+      </c>
       <c r="T196" t="s"/>
       <c r="U196" t="s"/>
       <c r="V196" t="s">
@@ -22370,7 +22758,9 @@
         <v>68</v>
       </c>
       <c r="R197" t="s"/>
-      <c r="S197" t="s"/>
+      <c r="S197" t="s">
+        <v>59</v>
+      </c>
       <c r="T197" t="s"/>
       <c r="U197" t="s"/>
       <c r="V197" t="s">
@@ -22437,7 +22827,9 @@
         <v>68</v>
       </c>
       <c r="R198" t="s"/>
-      <c r="S198" t="s"/>
+      <c r="S198" t="s">
+        <v>59</v>
+      </c>
       <c r="T198" t="s"/>
       <c r="U198" t="s"/>
       <c r="V198" t="s">
@@ -22504,7 +22896,9 @@
         <v>68</v>
       </c>
       <c r="R199" t="s"/>
-      <c r="S199" t="s"/>
+      <c r="S199" t="s">
+        <v>59</v>
+      </c>
       <c r="T199" t="s"/>
       <c r="U199" t="s"/>
       <c r="V199" t="s">
@@ -22571,7 +22965,9 @@
         <v>68</v>
       </c>
       <c r="R200" t="s"/>
-      <c r="S200" t="s"/>
+      <c r="S200" t="s">
+        <v>59</v>
+      </c>
       <c r="T200" t="s"/>
       <c r="U200" t="s"/>
       <c r="V200" t="s">
@@ -22638,7 +23034,9 @@
         <v>68</v>
       </c>
       <c r="R201" t="s"/>
-      <c r="S201" t="s"/>
+      <c r="S201" t="s">
+        <v>59</v>
+      </c>
       <c r="T201" t="s"/>
       <c r="U201" t="s"/>
       <c r="V201" t="s">
@@ -22703,7 +23101,9 @@
       </c>
       <c r="Q202" t="s"/>
       <c r="R202" t="s"/>
-      <c r="S202" t="s"/>
+      <c r="S202" t="s">
+        <v>59</v>
+      </c>
       <c r="T202" t="s"/>
       <c r="U202" t="s"/>
       <c r="V202" t="s">
@@ -22768,7 +23168,9 @@
       </c>
       <c r="Q203" t="s"/>
       <c r="R203" t="s"/>
-      <c r="S203" t="s"/>
+      <c r="S203" t="s">
+        <v>59</v>
+      </c>
       <c r="T203" t="s"/>
       <c r="U203" t="s"/>
       <c r="V203" t="s">
@@ -22835,7 +23237,9 @@
         <v>68</v>
       </c>
       <c r="R204" t="s"/>
-      <c r="S204" t="s"/>
+      <c r="S204" t="s">
+        <v>59</v>
+      </c>
       <c r="T204" t="s"/>
       <c r="U204" t="s"/>
       <c r="V204" t="s">
@@ -22900,7 +23304,9 @@
       </c>
       <c r="Q205" t="s"/>
       <c r="R205" t="s"/>
-      <c r="S205" t="s"/>
+      <c r="S205" t="s">
+        <v>59</v>
+      </c>
       <c r="T205" t="s"/>
       <c r="U205" t="s"/>
       <c r="V205" t="s">
@@ -22967,7 +23373,9 @@
         <v>68</v>
       </c>
       <c r="R206" t="s"/>
-      <c r="S206" t="s"/>
+      <c r="S206" t="s">
+        <v>59</v>
+      </c>
       <c r="T206" t="s"/>
       <c r="U206" t="s"/>
       <c r="V206" t="s">
@@ -23032,7 +23440,9 @@
       </c>
       <c r="Q207" t="s"/>
       <c r="R207" t="s"/>
-      <c r="S207" t="s"/>
+      <c r="S207" t="s">
+        <v>59</v>
+      </c>
       <c r="T207" t="s"/>
       <c r="U207" t="s"/>
       <c r="V207" t="s">
@@ -23099,7 +23509,9 @@
         <v>68</v>
       </c>
       <c r="R208" t="s"/>
-      <c r="S208" t="s"/>
+      <c r="S208" t="s">
+        <v>59</v>
+      </c>
       <c r="T208" t="s"/>
       <c r="U208" t="s"/>
       <c r="V208" t="s">
@@ -23166,7 +23578,9 @@
         <v>68</v>
       </c>
       <c r="R209" t="s"/>
-      <c r="S209" t="s"/>
+      <c r="S209" t="s">
+        <v>59</v>
+      </c>
       <c r="T209" t="s"/>
       <c r="U209" t="s"/>
       <c r="V209" t="s">
@@ -23233,7 +23647,9 @@
         <v>68</v>
       </c>
       <c r="R210" t="s"/>
-      <c r="S210" t="s"/>
+      <c r="S210" t="s">
+        <v>59</v>
+      </c>
       <c r="T210" t="s"/>
       <c r="U210" t="s"/>
       <c r="V210" t="s">
@@ -23300,7 +23716,9 @@
         <v>68</v>
       </c>
       <c r="R211" t="s"/>
-      <c r="S211" t="s"/>
+      <c r="S211" t="s">
+        <v>59</v>
+      </c>
       <c r="T211" t="s"/>
       <c r="U211" t="s"/>
       <c r="V211" t="s">
@@ -23367,7 +23785,9 @@
         <v>68</v>
       </c>
       <c r="R212" t="s"/>
-      <c r="S212" t="s"/>
+      <c r="S212" t="s">
+        <v>59</v>
+      </c>
       <c r="T212" t="s"/>
       <c r="U212" t="s"/>
       <c r="V212" t="s">
@@ -23434,7 +23854,9 @@
         <v>68</v>
       </c>
       <c r="R213" t="s"/>
-      <c r="S213" t="s"/>
+      <c r="S213" t="s">
+        <v>59</v>
+      </c>
       <c r="T213" t="s"/>
       <c r="U213" t="s"/>
       <c r="V213" t="s">
@@ -23499,7 +23921,9 @@
       </c>
       <c r="Q214" t="s"/>
       <c r="R214" t="s"/>
-      <c r="S214" t="s"/>
+      <c r="S214" t="s">
+        <v>59</v>
+      </c>
       <c r="T214" t="s"/>
       <c r="U214" t="s"/>
       <c r="V214" t="s">
@@ -23566,7 +23990,9 @@
         <v>68</v>
       </c>
       <c r="R215" t="s"/>
-      <c r="S215" t="s"/>
+      <c r="S215" t="s">
+        <v>59</v>
+      </c>
       <c r="T215" t="s"/>
       <c r="U215" t="s"/>
       <c r="V215" t="s">
@@ -23631,7 +24057,9 @@
       </c>
       <c r="Q216" t="s"/>
       <c r="R216" t="s"/>
-      <c r="S216" t="s"/>
+      <c r="S216" t="s">
+        <v>59</v>
+      </c>
       <c r="T216" t="s"/>
       <c r="U216" t="s"/>
       <c r="V216" t="s">
@@ -23698,7 +24126,9 @@
         <v>68</v>
       </c>
       <c r="R217" t="s"/>
-      <c r="S217" t="s"/>
+      <c r="S217" t="s">
+        <v>59</v>
+      </c>
       <c r="T217" t="s"/>
       <c r="U217" t="s"/>
       <c r="V217" t="s">
@@ -23765,7 +24195,9 @@
         <v>68</v>
       </c>
       <c r="R218" t="s"/>
-      <c r="S218" t="s"/>
+      <c r="S218" t="s">
+        <v>59</v>
+      </c>
       <c r="T218" t="s"/>
       <c r="U218" t="s"/>
       <c r="V218" t="s">
@@ -23832,7 +24264,9 @@
         <v>68</v>
       </c>
       <c r="R219" t="s"/>
-      <c r="S219" t="s"/>
+      <c r="S219" t="s">
+        <v>59</v>
+      </c>
       <c r="T219" t="s"/>
       <c r="U219" t="s"/>
       <c r="V219" t="s">
@@ -23899,7 +24333,9 @@
         <v>68</v>
       </c>
       <c r="R220" t="s"/>
-      <c r="S220" t="s"/>
+      <c r="S220" t="s">
+        <v>59</v>
+      </c>
       <c r="T220" t="s"/>
       <c r="U220" t="s"/>
       <c r="V220" t="s">
@@ -23966,7 +24402,9 @@
         <v>68</v>
       </c>
       <c r="R221" t="s"/>
-      <c r="S221" t="s"/>
+      <c r="S221" t="s">
+        <v>59</v>
+      </c>
       <c r="T221" t="s"/>
       <c r="U221" t="s"/>
       <c r="V221" t="s">
@@ -24031,7 +24469,9 @@
       </c>
       <c r="Q222" t="s"/>
       <c r="R222" t="s"/>
-      <c r="S222" t="s"/>
+      <c r="S222" t="s">
+        <v>59</v>
+      </c>
       <c r="T222" t="s"/>
       <c r="U222" t="s"/>
       <c r="V222" t="s">
@@ -24098,7 +24538,9 @@
         <v>68</v>
       </c>
       <c r="R223" t="s"/>
-      <c r="S223" t="s"/>
+      <c r="S223" t="s">
+        <v>59</v>
+      </c>
       <c r="T223" t="s"/>
       <c r="U223" t="s"/>
       <c r="V223" t="s">
@@ -24165,7 +24607,9 @@
         <v>68</v>
       </c>
       <c r="R224" t="s"/>
-      <c r="S224" t="s"/>
+      <c r="S224" t="s">
+        <v>59</v>
+      </c>
       <c r="T224" t="s"/>
       <c r="U224" t="s"/>
       <c r="V224" t="s">
@@ -24232,7 +24676,9 @@
         <v>68</v>
       </c>
       <c r="R225" t="s"/>
-      <c r="S225" t="s"/>
+      <c r="S225" t="s">
+        <v>59</v>
+      </c>
       <c r="T225" t="s"/>
       <c r="U225" t="s"/>
       <c r="V225" t="s">
@@ -24297,7 +24743,9 @@
       </c>
       <c r="Q226" t="s"/>
       <c r="R226" t="s"/>
-      <c r="S226" t="s"/>
+      <c r="S226" t="s">
+        <v>59</v>
+      </c>
       <c r="T226" t="s"/>
       <c r="U226" t="s"/>
       <c r="V226" t="s">
@@ -24364,7 +24812,9 @@
         <v>68</v>
       </c>
       <c r="R227" t="s"/>
-      <c r="S227" t="s"/>
+      <c r="S227" t="s">
+        <v>59</v>
+      </c>
       <c r="T227" t="s"/>
       <c r="U227" t="s"/>
       <c r="V227" t="s">
@@ -24431,7 +24881,9 @@
         <v>68</v>
       </c>
       <c r="R228" t="s"/>
-      <c r="S228" t="s"/>
+      <c r="S228" t="s">
+        <v>59</v>
+      </c>
       <c r="T228" t="s"/>
       <c r="U228" t="s"/>
       <c r="V228" t="s">
@@ -24498,7 +24950,9 @@
         <v>68</v>
       </c>
       <c r="R229" t="s"/>
-      <c r="S229" t="s"/>
+      <c r="S229" t="s">
+        <v>59</v>
+      </c>
       <c r="T229" t="s"/>
       <c r="U229" t="s"/>
       <c r="V229" t="s">
@@ -24565,7 +25019,9 @@
         <v>68</v>
       </c>
       <c r="R230" t="s"/>
-      <c r="S230" t="s"/>
+      <c r="S230" t="s">
+        <v>59</v>
+      </c>
       <c r="T230" t="s"/>
       <c r="U230" t="s"/>
       <c r="V230" t="s">
@@ -24632,7 +25088,9 @@
         <v>68</v>
       </c>
       <c r="R231" t="s"/>
-      <c r="S231" t="s"/>
+      <c r="S231" t="s">
+        <v>59</v>
+      </c>
       <c r="T231" t="s"/>
       <c r="U231" t="s"/>
       <c r="V231" t="s">
@@ -24699,7 +25157,9 @@
         <v>68</v>
       </c>
       <c r="R232" t="s"/>
-      <c r="S232" t="s"/>
+      <c r="S232" t="s">
+        <v>59</v>
+      </c>
       <c r="T232" t="s"/>
       <c r="U232" t="s"/>
       <c r="V232" t="s">
@@ -24764,7 +25224,9 @@
       </c>
       <c r="Q233" t="s"/>
       <c r="R233" t="s"/>
-      <c r="S233" t="s"/>
+      <c r="S233" t="s">
+        <v>59</v>
+      </c>
       <c r="T233" t="s"/>
       <c r="U233" t="s"/>
       <c r="V233" t="s">
@@ -24831,7 +25293,9 @@
         <v>68</v>
       </c>
       <c r="R234" t="s"/>
-      <c r="S234" t="s"/>
+      <c r="S234" t="s">
+        <v>59</v>
+      </c>
       <c r="T234" t="s"/>
       <c r="U234" t="s"/>
       <c r="V234" t="s">
@@ -24896,7 +25360,9 @@
       </c>
       <c r="Q235" t="s"/>
       <c r="R235" t="s"/>
-      <c r="S235" t="s"/>
+      <c r="S235" t="s">
+        <v>59</v>
+      </c>
       <c r="T235" t="s"/>
       <c r="U235" t="s"/>
       <c r="V235" t="s">
@@ -24963,7 +25429,9 @@
         <v>68</v>
       </c>
       <c r="R236" t="s"/>
-      <c r="S236" t="s"/>
+      <c r="S236" t="s">
+        <v>59</v>
+      </c>
       <c r="T236" t="s"/>
       <c r="U236" t="s"/>
       <c r="V236" t="s">
@@ -25030,7 +25498,9 @@
         <v>68</v>
       </c>
       <c r="R237" t="s"/>
-      <c r="S237" t="s"/>
+      <c r="S237" t="s">
+        <v>59</v>
+      </c>
       <c r="T237" t="s"/>
       <c r="U237" t="s"/>
       <c r="V237" t="s">
@@ -25097,7 +25567,9 @@
         <v>68</v>
       </c>
       <c r="R238" t="s"/>
-      <c r="S238" t="s"/>
+      <c r="S238" t="s">
+        <v>59</v>
+      </c>
       <c r="T238" t="s"/>
       <c r="U238" t="s"/>
       <c r="V238" t="s">
@@ -25164,7 +25636,9 @@
         <v>68</v>
       </c>
       <c r="R239" t="s"/>
-      <c r="S239" t="s"/>
+      <c r="S239" t="s">
+        <v>59</v>
+      </c>
       <c r="T239" t="s"/>
       <c r="U239" t="s"/>
       <c r="V239" t="s">
@@ -25231,7 +25705,9 @@
         <v>68</v>
       </c>
       <c r="R240" t="s"/>
-      <c r="S240" t="s"/>
+      <c r="S240" t="s">
+        <v>59</v>
+      </c>
       <c r="T240" t="s"/>
       <c r="U240" t="s"/>
       <c r="V240" t="s">
@@ -25296,7 +25772,9 @@
       </c>
       <c r="Q241" t="s"/>
       <c r="R241" t="s"/>
-      <c r="S241" t="s"/>
+      <c r="S241" t="s">
+        <v>59</v>
+      </c>
       <c r="T241" t="s"/>
       <c r="U241" t="s"/>
       <c r="V241" t="s">
@@ -25363,7 +25841,9 @@
         <v>68</v>
       </c>
       <c r="R242" t="s"/>
-      <c r="S242" t="s"/>
+      <c r="S242" t="s">
+        <v>59</v>
+      </c>
       <c r="T242" t="s"/>
       <c r="U242" t="s"/>
       <c r="V242" t="s">
@@ -25430,7 +25910,9 @@
         <v>68</v>
       </c>
       <c r="R243" t="s"/>
-      <c r="S243" t="s"/>
+      <c r="S243" t="s">
+        <v>59</v>
+      </c>
       <c r="T243" t="s"/>
       <c r="U243" t="s"/>
       <c r="V243" t="s">
@@ -25497,7 +25979,9 @@
         <v>68</v>
       </c>
       <c r="R244" t="s"/>
-      <c r="S244" t="s"/>
+      <c r="S244" t="s">
+        <v>59</v>
+      </c>
       <c r="T244" t="s"/>
       <c r="U244" t="s"/>
       <c r="V244" t="s">
@@ -25564,7 +26048,9 @@
         <v>68</v>
       </c>
       <c r="R245" t="s"/>
-      <c r="S245" t="s"/>
+      <c r="S245" t="s">
+        <v>59</v>
+      </c>
       <c r="T245" t="s"/>
       <c r="U245" t="s"/>
       <c r="V245" t="s">
@@ -25631,7 +26117,9 @@
         <v>68</v>
       </c>
       <c r="R246" t="s"/>
-      <c r="S246" t="s"/>
+      <c r="S246" t="s">
+        <v>59</v>
+      </c>
       <c r="T246" t="s"/>
       <c r="U246" t="s"/>
       <c r="V246" t="s">
@@ -25698,7 +26186,9 @@
         <v>68</v>
       </c>
       <c r="R247" t="s"/>
-      <c r="S247" t="s"/>
+      <c r="S247" t="s">
+        <v>59</v>
+      </c>
       <c r="T247" t="s"/>
       <c r="U247" t="s"/>
       <c r="V247" t="s">
@@ -25765,7 +26255,9 @@
         <v>68</v>
       </c>
       <c r="R248" t="s"/>
-      <c r="S248" t="s"/>
+      <c r="S248" t="s">
+        <v>59</v>
+      </c>
       <c r="T248" t="s"/>
       <c r="U248" t="s"/>
       <c r="V248" t="s">
@@ -25830,7 +26322,9 @@
       </c>
       <c r="Q249" t="s"/>
       <c r="R249" t="s"/>
-      <c r="S249" t="s"/>
+      <c r="S249" t="s">
+        <v>59</v>
+      </c>
       <c r="T249" t="s"/>
       <c r="U249" t="s"/>
       <c r="V249" t="s">
@@ -25897,7 +26391,9 @@
         <v>68</v>
       </c>
       <c r="R250" t="s"/>
-      <c r="S250" t="s"/>
+      <c r="S250" t="s">
+        <v>59</v>
+      </c>
       <c r="T250" t="s"/>
       <c r="U250" t="s"/>
       <c r="V250" t="s">
@@ -25962,7 +26458,9 @@
       </c>
       <c r="Q251" t="s"/>
       <c r="R251" t="s"/>
-      <c r="S251" t="s"/>
+      <c r="S251" t="s">
+        <v>59</v>
+      </c>
       <c r="T251" t="s"/>
       <c r="U251" t="s"/>
       <c r="V251" t="s">
@@ -26029,7 +26527,9 @@
         <v>68</v>
       </c>
       <c r="R252" t="s"/>
-      <c r="S252" t="s"/>
+      <c r="S252" t="s">
+        <v>59</v>
+      </c>
       <c r="T252" t="s"/>
       <c r="U252" t="s"/>
       <c r="V252" t="s">
@@ -26096,7 +26596,9 @@
         <v>68</v>
       </c>
       <c r="R253" t="s"/>
-      <c r="S253" t="s"/>
+      <c r="S253" t="s">
+        <v>59</v>
+      </c>
       <c r="T253" t="s"/>
       <c r="U253" t="s"/>
       <c r="V253" t="s">
@@ -26161,7 +26663,9 @@
       </c>
       <c r="Q254" t="s"/>
       <c r="R254" t="s"/>
-      <c r="S254" t="s"/>
+      <c r="S254" t="s">
+        <v>59</v>
+      </c>
       <c r="T254" t="s"/>
       <c r="U254" t="s"/>
       <c r="V254" t="s">
@@ -26228,7 +26732,9 @@
         <v>68</v>
       </c>
       <c r="R255" t="s"/>
-      <c r="S255" t="s"/>
+      <c r="S255" t="s">
+        <v>59</v>
+      </c>
       <c r="T255" t="s"/>
       <c r="U255" t="s"/>
       <c r="V255" t="s">
@@ -26295,7 +26801,9 @@
         <v>68</v>
       </c>
       <c r="R256" t="s"/>
-      <c r="S256" t="s"/>
+      <c r="S256" t="s">
+        <v>59</v>
+      </c>
       <c r="T256" t="s"/>
       <c r="U256" t="s"/>
       <c r="V256" t="s">
@@ -26362,7 +26870,9 @@
         <v>68</v>
       </c>
       <c r="R257" t="s"/>
-      <c r="S257" t="s"/>
+      <c r="S257" t="s">
+        <v>59</v>
+      </c>
       <c r="T257" t="s"/>
       <c r="U257" t="s"/>
       <c r="V257" t="s">
@@ -26427,7 +26937,9 @@
       </c>
       <c r="Q258" t="s"/>
       <c r="R258" t="s"/>
-      <c r="S258" t="s"/>
+      <c r="S258" t="s">
+        <v>59</v>
+      </c>
       <c r="T258" t="s"/>
       <c r="U258" t="s"/>
       <c r="V258" t="s">
@@ -26494,7 +27006,9 @@
         <v>68</v>
       </c>
       <c r="R259" t="s"/>
-      <c r="S259" t="s"/>
+      <c r="S259" t="s">
+        <v>59</v>
+      </c>
       <c r="T259" t="s"/>
       <c r="U259" t="s"/>
       <c r="V259" t="s">
@@ -26561,7 +27075,9 @@
         <v>68</v>
       </c>
       <c r="R260" t="s"/>
-      <c r="S260" t="s"/>
+      <c r="S260" t="s">
+        <v>59</v>
+      </c>
       <c r="T260" t="s"/>
       <c r="U260" t="s"/>
       <c r="V260" t="s">
@@ -26628,7 +27144,9 @@
         <v>68</v>
       </c>
       <c r="R261" t="s"/>
-      <c r="S261" t="s"/>
+      <c r="S261" t="s">
+        <v>59</v>
+      </c>
       <c r="T261" t="s"/>
       <c r="U261" t="s"/>
       <c r="V261" t="s">
@@ -26695,7 +27213,9 @@
         <v>68</v>
       </c>
       <c r="R262" t="s"/>
-      <c r="S262" t="s"/>
+      <c r="S262" t="s">
+        <v>59</v>
+      </c>
       <c r="T262" t="s"/>
       <c r="U262" t="s"/>
       <c r="V262" t="s">
@@ -26762,7 +27282,9 @@
         <v>68</v>
       </c>
       <c r="R263" t="s"/>
-      <c r="S263" t="s"/>
+      <c r="S263" t="s">
+        <v>59</v>
+      </c>
       <c r="T263" t="s"/>
       <c r="U263" t="s"/>
       <c r="V263" t="s">
@@ -26829,7 +27351,9 @@
         <v>68</v>
       </c>
       <c r="R264" t="s"/>
-      <c r="S264" t="s"/>
+      <c r="S264" t="s">
+        <v>59</v>
+      </c>
       <c r="T264" t="s"/>
       <c r="U264" t="s"/>
       <c r="V264" t="s">
@@ -26896,7 +27420,9 @@
         <v>68</v>
       </c>
       <c r="R265" t="s"/>
-      <c r="S265" t="s"/>
+      <c r="S265" t="s">
+        <v>59</v>
+      </c>
       <c r="T265" t="s"/>
       <c r="U265" t="s"/>
       <c r="V265" t="s">
@@ -26963,7 +27489,9 @@
         <v>68</v>
       </c>
       <c r="R266" t="s"/>
-      <c r="S266" t="s"/>
+      <c r="S266" t="s">
+        <v>59</v>
+      </c>
       <c r="T266" t="s"/>
       <c r="U266" t="s"/>
       <c r="V266" t="s">
@@ -27030,7 +27558,9 @@
         <v>68</v>
       </c>
       <c r="R267" t="s"/>
-      <c r="S267" t="s"/>
+      <c r="S267" t="s">
+        <v>59</v>
+      </c>
       <c r="T267" t="s"/>
       <c r="U267" t="s"/>
       <c r="V267" t="s">
@@ -27097,7 +27627,9 @@
         <v>68</v>
       </c>
       <c r="R268" t="s"/>
-      <c r="S268" t="s"/>
+      <c r="S268" t="s">
+        <v>59</v>
+      </c>
       <c r="T268" t="s"/>
       <c r="U268" t="s"/>
       <c r="V268" t="s">
@@ -27162,7 +27694,9 @@
       </c>
       <c r="Q269" t="s"/>
       <c r="R269" t="s"/>
-      <c r="S269" t="s"/>
+      <c r="S269" t="s">
+        <v>59</v>
+      </c>
       <c r="T269" t="s"/>
       <c r="U269" t="s"/>
       <c r="V269" t="s">
@@ -27227,7 +27761,9 @@
       </c>
       <c r="Q270" t="s"/>
       <c r="R270" t="s"/>
-      <c r="S270" t="s"/>
+      <c r="S270" t="s">
+        <v>59</v>
+      </c>
       <c r="T270" t="s"/>
       <c r="U270" t="s"/>
       <c r="V270" t="s">
@@ -27294,7 +27830,9 @@
         <v>68</v>
       </c>
       <c r="R271" t="s"/>
-      <c r="S271" t="s"/>
+      <c r="S271" t="s">
+        <v>59</v>
+      </c>
       <c r="T271" t="s"/>
       <c r="U271" t="s"/>
       <c r="V271" t="s">

--- a/docs/collections/ogai/metadata/data.xlsx
+++ b/docs/collections/ogai/metadata/data.xlsx
@@ -5244,7 +5244,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/9d3f2a46-678d-4b2a-93c3-e64ee81fe656/manifest</t>
   </si>
   <si>
-    <t>Tannhäuser und der Sängerkrieg auf Wartburg : Große romanische Oper in 3 Akten / von Richard Wagner.</t>
+    <t>Tannhäuser und der Sängerkrieg auf Wartburg : Große romantische Oper in 3 Akten / von Richard Wagner.</t>
   </si>
   <si>
     <t>Berlin : C.F. Meser, [n.d.]. 42 p. ; 17 cm.</t>
